--- a/JobSearch2017Jan.xlsx
+++ b/JobSearch2017Jan.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$109</definedName>
     <definedName name="startcontent" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="787">
   <si>
     <t>Expiry date</t>
   </si>
@@ -1483,68 +1484,12 @@
     <t>http://www.jobs.ac.uk/job/AWQ772/research-assistant-associate-in-biophotonics-and-endoscopic-imaging/</t>
   </si>
   <si>
-    <r>
-      <t>Imperial College London</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> - The Hamlyn Centre for Robotic Surgery in association with Department of Computing, Faculty of Engineering Department of Surgery and Cancer, Faculty of Medicine</t>
-    </r>
-  </si>
-  <si>
     <t>Fixed term appointment until 31st May 2019  Applicants are invited to apply for a new vacancy at either Research Assistant (pre-doctoral) or Research Associate (post-doctoral) level for biophotonics and endoscopic imaging. The Hamlyn Centre is dedicated to developing safe, effective and accessible imaging, sensing and robotics technologies that can reshape the future of healthcare. The vacancy is created by a major EPSRC grant to the Centre for developing robot-guided endobronchial OCT and fluorescence imaging to allow multi-modal visualisation of the morphological and cellular details of the distal airways. We are looking for outstanding applicants in any of the following areas of research: Biophotonics, particularly with strong hands on experience and theoretical skills in confocal endomicroscopy, OCT, and fluorescence microscopy
 Endoscopic imaging, 3D navigation and multi-scale integration
 Optical sensing and micro-electronics</t>
   </si>
   <si>
     <t>For a Research Assistant level position you must have a Masters degree (or equivalent) in Physics, Electronic Engineering, Computer Science, Biomedical Engineering, or a related discipline.  Applicants with strong experience and a proven track record in one or more of the above research areas are encouraged to apply. A high level of analytical and computing skills is required.  Preference will be given to applicants with a proven research record and publications in relevant areas. Applicants must be fluent in English.  The position is based at the South Kensington campus.</t>
-  </si>
-  <si>
-    <r>
-      <t>For details of the project see: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00657C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>http://www.imperial.ac.uk/hamlyn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> or email </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00657C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r.raupp@imperial.ac.uk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> for informal enquiries or background of the project.</t>
-    </r>
   </si>
   <si>
     <t>IC HamlynCentre-EN20170007LE JD.doc</t>
@@ -1861,33 +1806,6 @@
   </si>
   <si>
     <t>University of Cambridge - Department of Public Health and Primary Care</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ideally suited to someone seeking a new challenge, the post-holder will have: (1) Relevant degree [1st / 2(i)] or post graduate qualification in mathematics or similar or equivalent experience, and; (2) Some experience of programming, preferably in a structured programming language such as SAS, R, Perl or STATA. The post-holder should have a systematic and rigorous approach to work with excellent organisational, communication and interpersonal skills. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The funds for these posts are available until 31st December 2019 in the first instance. Interview Dates: Week commencing 27th February 2017
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Previous applicants to this vacancy need not apply</t>
-    </r>
   </si>
   <si>
     <t>Location of post: Cardiovascular Epidemiology Unit, Department of Public Health and Primary Care, University of Cambridge, Strangeways Research Laboratory, Worts Causeway, Cambridge, CB1 8RN (approx 2 miles south of city centre)</t>
@@ -2528,12 +2446,242 @@
   <si>
     <t>UCL-Shah-PatchClamp-466618.docx</t>
   </si>
+  <si>
+    <t>RA Cell Biophys Lab-MRC-UCL-E.Paluch-465320.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have any queries regarding the vacancy, please contact Prof. Ewa Paluch: e.paluch@ucl.ac.uk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The appointee should have extensive cell and molecular biology experience, including cell culture and molecular biology techniques, as well as experience with live microscopy. Previous experience with electron microscopy and/or stem cell biology is highly desirable. Additional experience in biophysics, microfabrication and/or quantitative image processing, while not required, will be considered an advantage. The successful candidate will be able to demonstrate excellent organisation and communication skills (both verbal and written), enthusiastic about science, and a proven track record of good collaboration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Research Assistant position is available at the MRC-Laboratory for Molecular Cell Biology at UCL, a world-leading academic and research institution. The post holder will provide reliable organisational and technical support to the research group in order to promote and contribute to a research programme financed by Medical Research Council. The post holder will also contribute to research projects under the direct guidance of the group leader or of another group member.
+The successful candidate will take charge of lab organisation, ordering of laboratory consumables, maintaining a highly ordered cell culture facility, maintaining laboratory databases, and ensuring compliance with health and safety regulations. Furthermore, the post holder will contribute to experiments in which assistance is needed and work on a research project under direct supervision. The position is a maternity leave cover and is available for a year starting as soon as possible. </t>
+  </si>
+  <si>
+    <t>UCL MRC Laboratory for Molecular Cell Biology</t>
+  </si>
+  <si>
+    <t>https://atsv7.wcn.co.uk/search_engine/jobs.cgi?amNvZGU9MTYyODA0MyZ2dF90ZW1wbGF0ZT05NjUmb3duZXI9NTA0MTE3OCZvd25lcnR5cGU9ZmFpciZicmFuZF9pZD0wJmpvYl9yZWZfY29kZT0xNjI4MDQzJnBvc3RpbmdfY29kZT0yMjQmcmVxc2lnPTE0ODc2OTIzMjYtOTQyOWJkZjNhMGYxMmFmNjBmZWMxMWU2MDJmOGE2ZTAzYmU2MzZjOA%3D%3D&amp;jcode=1628043&amp;vt_template=965&amp;owner=5041178&amp;ownertype=fair&amp;brand_id=0&amp;job_ref_code=1628043&amp;posting_code=224&amp;reqsig=1487692326-9429bdf3a0f12af60fec11e602f8a6e03be636c8</t>
+  </si>
+  <si>
+    <t>Research Assistant in Cell Biophysics Lab</t>
+  </si>
+  <si>
+    <t>Manchester Neurosci RLucas.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BM&amp;H-09704</t>
+  </si>
+  <si>
+    <t>21/03 or 24/03</t>
+  </si>
+  <si>
+    <t>The University of Manchester - School of Biological Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 May 2017 to 30 September 2020 We seek an ambitious and motivated researcher to join our team investigating how daytime light impacts sleep and circadian rhythms. This is a fantastic opportunity to be at the forefront of understanding how physiology and behaviour is influenced by our environment, with substantial practical implications. Working under the guidance of Professor Robert Lucas and Dr Timothy Brown, you will employ electrophysiological, behavioural and molecular techniques to study light responses, sleep, and circadian rhythms in rodents. You will directly supervise a technician supporting these activities. This BBSRC funded project receives industrial sponsorship from Philips Lighting, maximising the opportunities for real-world application of your findings. </t>
+  </si>
+  <si>
+    <t>The position is available from early May for a period of 41 months, full-time. You are expected to hold (or to shortly hold) a Ph.D. in a relevant branch of life sciences or equivalent. Full training is available; however, the ability to work independently is essential, as is experience with electrophysiological recording and/or studies of visual or circadian function. Experience with laboratory rodents and relevant surgical procedures are also desirable. You will be subject to pre-employment screening carried out on our behalf by a third party. The offer of employment will be dependent on you passing that screening. Whilst you will be required to provide express consent at a later stage, by continuing with your application now you acknowledge that you are aware that such screening will take place, and agree to take part in the process.</t>
+  </si>
+  <si>
+    <t>Enquiries about the vacancy, shortlisting and interviews:
+Name: Robert Lucas
+Email: robert.lucas@manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>Imperial College London - The Hamlyn Centre for Robotic Surgery in association with Department of Computing, Faculty of Engineering Department of Surgery and Cancer, Faculty of Medicine</t>
+  </si>
+  <si>
+    <t>For details of the project see: http://www.imperial.ac.uk/hamlyn or email r.raupp@imperial.ac.uk for informal enquiries or background of the project.</t>
+  </si>
+  <si>
+    <t>Ideally suited to someone seeking a new challenge, the post-holder will have: (1) Relevant degree [1st / 2(i)] or post graduate qualification in mathematics or similar or equivalent experience, and; (2) Some experience of programming, preferably in a structured programming language such as SAS, R, Perl or STATA. The post-holder should have a systematic and rigorous approach to work with excellent organisational, communication and interpersonal skills. The funds for these posts are available until 31st December 2019 in the first instance. Interview Dates: Week commencing 27th February 2017
+Previous applicants to this vacancy need not apply</t>
+  </si>
+  <si>
+    <t>UCL-neurology-drosoph-466937.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The post is available from April 2017 and is funded for three years in the first instance by a grant from the MRC.  Applications are invited for a Research Associate in the Department of Clinical and Experimental Epilepsy, UCL Institute of Neurology under the supervision of Dr James Jepson. The successful postholder will investigate the underlying pathophysiological mechanisms of progressive myoclonus epilepsy (PME) linked to mutations in the Golgi SNARE protein GOSR2. The applicant utilise novel Drosophila models of GOSR2-PME and examine how corresponding mutations in the Drosophila orthologue of GOSR2 (membrin) influence neurotransmission and plasticity at the Drosophila larval neuromuscular junction. Pathways that impact these electrophysiological phenotypes will subsequently be analysed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicants must have a PhD in Neurobiology or related discipline and an Honours Degree (min 2:1) in Biology or related discipline. Expertise in performing electrophysiological recordings and analysis, including patch-clamp recording and/or sharp electrode recordings is essential, as is experience of confocal imaging. Expertise in Dosophilia genetics and of molecular biology is desirable.
+</t>
+  </si>
+  <si>
+    <t>https://atsv7.wcn.co.uk/search_engine/jobs.cgi?SID=b3duZXI9NTA0MTE3OCZvd25lcnR5cGU9ZmFpciZ2dF90ZW1wbGF0ZT05NjUmamNvZGU9MTYzMTcyOSZwb3N0aW5nX2NvZGU9MjI0Jg==</t>
+  </si>
+  <si>
+    <t>UCL Institute of Neurology Department of Clinical and Experimental Epilepsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Associate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are seeking a highly motivated Postdoctoral Research Associate to join the Department of Basic and Clinical Neuroscience at the Institute of Psychiatry, Psychology &amp; Neuroscience, King’s College London. The post is funded by the Alzheimer’s Society for three years. We have developed a new mouse model that we are using to investigate molecular mechanisms underlying the development of neurodegenerative diseases, such as Alzheimer’s disease and related disorders (Bondulich et al. 2016, Brain, 139, 2290). In particular, we are examining the influence of tau on disease mechanisms and cognitive processes. The aim of this project is to establish primary neuronal cultures from this tauopathy model and begin to test the adverse effects of expressing a disease-associated tau fragment. We have shown previously that tau is released by neurons and that this process is critically dependent on both calcium and neuronal activity. We want to test whether expression of a tau fragment in neurons adversely affects basal and stimulated tau release. We will also examine the influence of the tau fragment on synaptic proteins and the development of dendritic spines in cultured neurons, which is important for disease pathogenesis in dementia. </t>
+  </si>
+  <si>
+    <t>https://www.hirewire.co.uk/HE/1061247/MS_JobDetails.aspx?JobID=75128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postdoctoral Research Associate </t>
+  </si>
+  <si>
+    <t>This post will be Fixed Term Contract for 3 years.  Experience in working with transgenic mouse models and primary neurons using advanced microscopy, biochemical, cell and molecular biology approaches would be advantageous. A good knowledge of defective signaling processes in dementia and related disorders is also required for this post. The successful applicants will join established research groups headed by Professor Diane Hanger: http://www.kcl.ac.uk/ioppn/depts/bcn/Our-research/Neurodegeneration/diane-hanger-dementia-tauopathies/Index.aspx
+and Dr Wendy Noble: http://www.kcl.ac.uk/ioppn/depts/bcn/Our-research/Neurodegeneration/wendy-noble-neurodegeneration/Index.aspx</t>
+  </si>
+  <si>
+    <t>THW/17/059639/000249</t>
+  </si>
+  <si>
+    <t>Department of Basic and Clinical Neuroscience at the Institute of Psychiatry, Psychology &amp; Neuroscience, King’s College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,958+2,623 </t>
+  </si>
+  <si>
+    <t>JobPackResearch_Alz_Soc_DianeHanger.docx</t>
+  </si>
+  <si>
+    <t>For an informal discussion to find out more about the role please contact Dr Simon Ameer-Beg (Simon.ameer-Beg@kcl.ac.uk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As part of an ambitious programme of research to analyse and manipulate isolated single cells and funded by the UK Medical Research Council, we are seeking an exceptional post-doctoral researcher to develop innovative cell imaging techniques using the latest technology. Interest in, or experience of advanced microscopy, microfluidics, biophysics, optics, optical trapping and computer programming is desirable. No prior biological experience is expected or required but an enthusiasm to apply physical and engineering principles to specific biological problems is essential. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project will explore the application of advanced imaging techniques such as high-speed multifocal multiphoton fluorescence lifetime imaging, development and validation of FRET assays, microfluidic platform development, 3D printing, super-resolution imaging and signal processing to elucidate protein signalling within live cells. Such a multimodal and multidisciplinary approach will enable us to accurately determine protein oligomerisation, stoichiometry and downstream signalling of ligand-driven receptor interactions. 
+The successful candidate will join a multidisciplinary team within a well-equipped laboratory environment using state of the art bespoke microscopy to answer fundamental questions of relevance to personalised cancer medicine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36001+2,623 </t>
+  </si>
+  <si>
+    <t>JobPackResearchAssistant_MRC_Simon_Ameer_Beg_Nedbal_replacement_final.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THW/17/059639/000252 </t>
+  </si>
+  <si>
+    <t>found in UnivJobmatch &amp;Kings</t>
+  </si>
+  <si>
+    <t>https://www.hirewire.co.uk/HE/1061247/MS_JobDetails.aspx?JobID=75131</t>
+  </si>
+  <si>
+    <t>Kings College London</t>
+  </si>
+  <si>
+    <t>https://atsv7.wcn.co.uk/search_engine/jobs.cgi?SID=amNvZGU9MTYyNjg4MCZ2dF90ZW1wbGF0ZT05NjUmb3duZXI9NTA0MTE3OCZvd25lcnR5cGU9ZmFpciZicmFuZF9pZD0wJnZhY2Zpcm0udmFjdGl0bGU9c2VuaW9yIHJlc2VhcmNoIGFzc29jaWF0ZSZwb3N0aW5nX2NvZGU9MjI0</t>
+  </si>
+  <si>
+    <t>Senior Research Associate (LabView/FPGA control systems architect/engineer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applications are sought for a Senior Research Associate to be part of the innovative team developing cutting edge neuroscience imaging technology funded by the US National Institute of Health (Brain initiative award). http://silverlab.org
+The role will involve innovating, developing, maintaining and documenting an extensive LabVIEW code base coupled with a custom FPGA based high speed control and acquisition system for a novel type of 3D two-photon microscope for functional brain imaging. This will involve working closely with a team of microscope designers and experimental neuroscientists
+The post is available immediately and is funded until June 2019, in the first instance with possibility of extension.
+</t>
+  </si>
+  <si>
+    <t>The successful candidate will hold a PhD in Physics, Computer Science/technical field or have equivalent experience. High level demonstrable experience of LabVIEW programming within a commercial environment, together with version control and signal processing analyses are essential.</t>
+  </si>
+  <si>
+    <t>For informal enquiries about the role, please contact Professor Angus Silver a.silver@ucl.ac.uk
+If you have any queries regarding the vacancy or the application process, please contact the Biosciences Staffing team, biosciences.staffing@ucl.ac.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCL Division of Biosciences </t>
+  </si>
+  <si>
+    <t>SilverLab-LABVIEW-465097.docx</t>
+  </si>
+  <si>
+    <t>For info only! from Univjobmatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THW/17/059639/000243 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Associate in the Centre for Developmental Neurobiology </t>
+  </si>
+  <si>
+    <t>https://www.hirewire.co.uk/HE/1061247/MS_JobDetails.aspx?JobID=75122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King's College London  Centre for Developmental Neurobiology </t>
+  </si>
+  <si>
+    <t>32,958+2,623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This 3-year post-doctoral position in the laboratory of Professor Beatriz Rico is funded by the ERC (European Research Council) and Wellcome Trust, and will investigate the assembly and organisation of inhibitory networks in the cerebral cortex. The CDN is a world-leading centre in the field of developmental neuroscience, situated in central London. This project requires a multidisciplinary neuroscientific approach encompassing developmental neurobiology, electrophysiology and functional analysis. We are seeking a bright, talented and highly motivated post-doctoral researcher to join our team. </t>
+  </si>
+  <si>
+    <t>Candidates should have obtained a PhD in Neuroscience and have strong experience in patch clamp recordings. Experience in neurotransmitter uncaging, 2-photon microscopy and confocal microscopy are desirable. If you have questions about this role, please contact: Professor Beatriz Rico, Email: beatriz.rico@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>If you have questions about this role, please contact: Professor Beatriz Rico, Email: beatriz.rico@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>JobPack_Research_Associate_Rico_ERC_post.docx</t>
+  </si>
+  <si>
+    <t>one I missed</t>
+  </si>
+  <si>
+    <t>R6/MOE/0362/17-DB</t>
+  </si>
+  <si>
+    <t>King's College London - Richard Dimbleby Research Labs, Division of Cancer Studies</t>
+  </si>
+  <si>
+    <t>This post will be Fixed Term Contract until 30 June 2018  As part of an ambitious programme of research to analyse and manipulate isolated single cells and funded by the UK Medical Research Council, we are seeking an exceptional post-doctoral researcher to develop innovative cell imaging techniques using the latest technology. Interest in, or experience of advanced microscopy, microfluidics, biophysics, optics, optical trapping and computer programming is desirable. No prior biological experience is expected or required but an enthusiasm to apply physical and engineering principles to specific biological problems is essential.</t>
+  </si>
+  <si>
+    <t>This project will explore the application of advanced imaging techniques such as high-speed multifocal multiphoton fluorescence lifetime imaging, development and validation of FRET assays, microfluidic platform development, 3D printing, super-resolution imaging and signal processing to elucidate protein signalling within live cells. Such a multimodal and multidisciplinary approach will enable us to accurately determine protein oligomerisation, stoichiometry and downstream signalling of ligand-driven receptor interactions.</t>
+  </si>
+  <si>
+    <t>jobs.ac.uk seen 24/02</t>
+  </si>
+  <si>
+    <t>http://www.jobs.ac.uk/job/AXO314/research-associate/</t>
+  </si>
+  <si>
+    <t>other_JobPackResearchAssistant_MRC_Simon_Ameer_Beg_Nedbal_replacement_final.docx</t>
+  </si>
+  <si>
+    <t>University of Leeds - School of Physics &amp; Astronomy</t>
+  </si>
+  <si>
+    <t>http://www.jobs.ac.uk/job/AXO074/research-fellow-in-experimental-soft-matter-physics/</t>
+  </si>
+  <si>
+    <t>Research Fellow in Experimental Soft Matter Physics</t>
+  </si>
+  <si>
+    <t>MAPPA1038</t>
+  </si>
+  <si>
+    <t>Fixed Term (until 30 November 2017)  These two posts will form part of a £5M EPSRC Programme grant ‘Sculpting Dynamic Amphiphilic Structures’, a large-scale collaboration between Leeds University (Dr Simon Connell) and leading groups at Imperial College London and the Universities of Durham, Cambridge. The Researchers working on this project, in collaboration with PhD students and our external partners will work at the forefront of the emerging field of molecular membrane engineering to design and construct new biologically-inspired devices and systems based on lipid bilayer structures. This will revolutionise the design and fabrication of smart, soft materials and in the longer term, will lead to a paradigm shift in areas such as nanomedicine, bioelectronics, biological computing devices and synthetic cells. This project will involve a high degree of teamwork and interdisciplinary research.</t>
+  </si>
+  <si>
+    <t>Having completed a PhD in Physics or a closely allied discipline, you will prepare self-assembled structures of various amphiphillic molecules and study their morphology, dynamic properties and mechanical behaviour using surface sensitive techniques such as AFM (Atomic Force Microscopy), fluorescence microscopy, QCM (Quartz Crystal Microbalance) and Langmuir isotherms/ deposition. Thermodynamic properties will be investigated using micro-calorimtery. Instrumental and technique development will play a central role in this project performed in close collaboration with theorists and industrialists. Further details are available on the CAPiTALs (Curvature, asymmetry and patterning integrated through all length scales) grant website.</t>
+  </si>
+  <si>
+    <t>To explore the post further or for any queries you may have, please contact: 
+Dr Simon Connell Tel: +44 (0)113 343 8241, email: s.d.a.connell@leeds.ac.uk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2635,27 +2783,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00657C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2697,6 +2825,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2734,7 +2869,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2750,9 +2885,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -2842,9 +2974,6 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2890,25 +3019,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2940,13 +3066,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3381,13 +3510,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3700,23 +3829,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT111"/>
+  <dimension ref="A1:AT116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="24" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="44" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="35" customWidth="1"/>
     <col min="9" max="9" width="74.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="74.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="74.28515625" style="22" customWidth="1"/>
     <col min="11" max="11" width="22" style="4" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="19" style="2" customWidth="1"/>
@@ -3724,3371 +3853,3340 @@
     <col min="15" max="16384" width="48.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="15" customFormat="1" ht="180">
-      <c r="A1" s="30">
+    <row r="1" spans="1:46" s="14" customFormat="1" ht="180">
+      <c r="A1" s="29">
         <v>42638</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="34">
+      <c r="G1" s="33">
         <v>32600</v>
       </c>
-      <c r="H1" s="34">
+      <c r="H1" s="33">
         <v>32600</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="9" customFormat="1" ht="165">
-      <c r="A2" s="31">
+    <row r="2" spans="1:46" s="8" customFormat="1" ht="165">
+      <c r="A2" s="30">
         <v>42639</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>42612</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>3522</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="50" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:46" s="9" customFormat="1" ht="60">
-      <c r="A3" s="31">
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:46" s="8" customFormat="1" ht="60">
+      <c r="A3" s="30">
         <v>42645</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>42600</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>36672</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <v>32600</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-    </row>
-    <row r="4" spans="1:46" s="9" customFormat="1" ht="120">
-      <c r="A4" s="31">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+    </row>
+    <row r="4" spans="1:46" s="8" customFormat="1" ht="120">
+      <c r="A4" s="30">
         <v>42648</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>42619</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="34">
         <v>29610</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="34">
         <v>29610</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-    </row>
-    <row r="5" spans="1:46" s="9" customFormat="1" ht="72">
-      <c r="A5" s="31">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+    </row>
+    <row r="5" spans="1:46" s="8" customFormat="1" ht="72">
+      <c r="A5" s="30">
         <v>42659</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>42628</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="34">
         <v>32600</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>32600</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="10" customFormat="1" ht="150">
-      <c r="A6" s="31">
+    <row r="6" spans="1:46" s="9" customFormat="1" ht="150">
+      <c r="A6" s="30">
         <v>42665</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>42630</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <v>40716</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>33686</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-    </row>
-    <row r="7" spans="1:46" s="9" customFormat="1" ht="150">
-      <c r="A7" s="31">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+    </row>
+    <row r="7" spans="1:46" s="8" customFormat="1" ht="150">
+      <c r="A7" s="30">
         <v>42670</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:46" s="9" customFormat="1" ht="120">
-      <c r="A8" s="31">
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:46" s="8" customFormat="1" ht="120">
+      <c r="A8" s="30">
         <v>42670</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>42649</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>39934</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>30309</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="9" customFormat="1" ht="108">
-      <c r="A9" s="31">
+    <row r="9" spans="1:46" s="8" customFormat="1" ht="108">
+      <c r="A9" s="30">
         <v>42671</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>42646</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>5255</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="40">
         <v>38183</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>31076</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="9" customFormat="1" ht="210">
-      <c r="A10" s="31">
+    <row r="10" spans="1:46" s="8" customFormat="1" ht="210">
+      <c r="A10" s="30">
         <v>42673</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="27">
+      <c r="B10" s="30"/>
+      <c r="C10" s="26">
         <v>1585892</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="40">
         <v>41163</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>34056</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="9" customFormat="1" ht="195">
-      <c r="A11" s="31">
+    <row r="11" spans="1:46" s="8" customFormat="1" ht="195">
+      <c r="A11" s="30">
         <v>42673</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>42638</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>1594737</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="40">
         <v>42820</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>29960</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="15" customFormat="1" ht="105">
-      <c r="A12" s="30">
+    <row r="12" spans="1:46" s="14" customFormat="1" ht="105">
+      <c r="A12" s="29">
         <v>42674</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>42647</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="41">
         <v>36064</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="33">
         <v>32405</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="9" customFormat="1" ht="144">
-      <c r="A13" s="31">
+    <row r="13" spans="1:46" s="8" customFormat="1" ht="144">
+      <c r="A13" s="30">
         <v>42674</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>42654</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <v>37970</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>36070</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:46" s="15" customFormat="1" ht="108">
-      <c r="A14" s="30">
+    <row r="14" spans="1:46" s="14" customFormat="1" ht="108">
+      <c r="A14" s="29">
         <v>42675</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>42643</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>1596163</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>40018</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <v>32145</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:46" s="9" customFormat="1" ht="225">
-      <c r="A15" s="31">
+    <row r="15" spans="1:46" s="8" customFormat="1" ht="225">
+      <c r="A15" s="30">
         <v>42675</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="30">
         <v>42660</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>1595156</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="40">
         <v>27545</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <v>27545</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:46" s="9" customFormat="1" ht="84">
-      <c r="A16" s="31">
+    <row r="16" spans="1:46" s="8" customFormat="1" ht="84">
+      <c r="A16" s="30">
         <v>42675</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="30">
         <v>42646</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <v>41560</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>36179</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" ht="270">
-      <c r="A17" s="31">
+      <c r="I16" s="48"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="270">
+      <c r="A17" s="30">
         <v>42678</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>42649</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>41163</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>34056</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" ht="132">
-      <c r="A18" s="31">
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="132">
+      <c r="A18" s="30">
         <v>42681</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>42654</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>32958</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="12" t="s">
+      <c r="H18" s="34"/>
+      <c r="I18" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" ht="156">
-      <c r="A19" s="30">
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="156">
+      <c r="A19" s="29">
         <v>42681</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>42668</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <v>36064</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="33">
         <v>32405</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" ht="144">
-      <c r="A20" s="31">
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="144">
+      <c r="A20" s="30">
         <v>42682</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <v>42667</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="40">
         <v>31432</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <v>29809</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="225">
-      <c r="A21" s="31">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="225">
+      <c r="A21" s="30">
         <v>42683</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="34">
         <v>34270</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="34">
         <v>30160</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="150">
-      <c r="A22" s="31">
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="150">
+      <c r="A22" s="30">
         <v>42683</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="34">
         <v>43350</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>36070</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="150">
-      <c r="A23" s="31">
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="150">
+      <c r="A23" s="30">
         <v>42685</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="30">
         <v>42656</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <v>43350</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>36070</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="62" t="s">
+      <c r="J23" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="120">
-      <c r="A24" s="31">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="120">
+      <c r="A24" s="30">
         <v>42688</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="30">
         <v>42653</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="34">
         <v>39324</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="34">
         <v>32958</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="210">
-      <c r="A25" s="31">
+      <c r="J24" s="59"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="210">
+      <c r="A25" s="30">
         <v>42694</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="30">
         <v>42664</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="40">
         <v>43350</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="34">
         <v>36070</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="62" t="s">
+      <c r="J25" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" ht="108">
-      <c r="A26" s="31">
+    <row r="26" spans="1:11" s="8" customFormat="1" ht="108">
+      <c r="A26" s="30">
         <v>42694</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <v>42685</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="34">
         <v>37970</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="34">
         <v>36070</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="62" t="s">
+      <c r="J26" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="195">
-      <c r="A27" s="31">
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="195">
+      <c r="A27" s="30">
         <v>42697</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="26">
+      <c r="B27" s="30"/>
+      <c r="C27" s="25">
         <v>1590285</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="34">
         <v>41163</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="34">
         <v>34056</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="105">
-      <c r="A28" s="31">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="105">
+      <c r="A28" s="30">
         <v>42698</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="30">
         <v>42683</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>1605682</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="34">
         <v>32281</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="34">
         <v>27545</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" ht="105">
-      <c r="A29" s="31">
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="105">
+      <c r="A29" s="30">
         <v>42701</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="34">
         <v>36001</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="34">
         <v>32958</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="105">
-      <c r="A30" s="31">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="105">
+      <c r="A30" s="30">
         <v>42702</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="30">
         <v>42683</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="34">
         <v>31076</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="180">
-      <c r="A31" s="31">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="180">
+      <c r="A31" s="30">
         <v>42706</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="30">
         <v>42678</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="34">
         <v>43350</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="34">
         <v>36070</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" ht="165">
-      <c r="A32" s="30">
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="165">
+      <c r="A32" s="29">
         <v>42709</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="29">
         <v>42682</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>1596195</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="33">
         <v>41163</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="33">
         <v>34056</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="9" customFormat="1" ht="144">
-      <c r="A33" s="31">
+    <row r="33" spans="1:12" s="8" customFormat="1" ht="144">
+      <c r="A33" s="30">
         <v>42713</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="30">
         <v>42699</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>1613680</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="34">
         <v>38981</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="34">
         <v>34056</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="J33" s="62" t="s">
+      <c r="J33" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="9" customFormat="1" ht="165">
-      <c r="A34" s="31">
+    <row r="34" spans="1:12" s="8" customFormat="1" ht="165">
+      <c r="A34" s="30">
         <v>42713</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="30">
         <v>42699</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <v>1614433</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="34">
         <v>41163</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="34">
         <v>34056</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="9" customFormat="1" ht="225">
-      <c r="A35" s="31">
+    <row r="35" spans="1:12" s="8" customFormat="1" ht="225">
+      <c r="A35" s="30">
         <v>42716</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="30">
         <v>42688</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="34">
         <v>43350</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="34">
         <v>36070</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="J35" s="62" t="s">
+      <c r="J35" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" s="9" customFormat="1" ht="264">
-      <c r="A36" s="31">
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" s="8" customFormat="1" ht="264">
+      <c r="A36" s="30">
         <v>42723</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="30">
         <v>42710</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>1613687</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="34">
         <v>42304</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="34">
         <v>34056</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J36" s="62" t="s">
+      <c r="J36" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="9" customFormat="1" ht="105">
-      <c r="A37" s="31">
+    <row r="37" spans="1:12" s="8" customFormat="1" ht="105">
+      <c r="A37" s="30">
         <v>42725</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="34">
         <v>32929</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="12" t="s">
+      <c r="H37" s="34"/>
+      <c r="I37" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="J37" s="62" t="s">
+      <c r="J37" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="9" customFormat="1" ht="150">
-      <c r="A38" s="31">
+    <row r="38" spans="1:12" s="8" customFormat="1" ht="150">
+      <c r="A38" s="30">
         <v>42727</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="30">
         <v>42713</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="34">
         <v>34014</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="34">
         <v>32929</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="J38" s="62" t="s">
+      <c r="J38" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="11" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="9" customFormat="1" ht="156">
-      <c r="A39" s="31">
+    <row r="39" spans="1:12" s="8" customFormat="1" ht="156">
+      <c r="A39" s="30">
         <v>42732</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="30">
         <v>42704</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="34">
         <v>44815</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="12" t="s">
+      <c r="H39" s="34"/>
+      <c r="I39" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J39" s="62" t="s">
+      <c r="J39" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="12" customFormat="1" ht="144">
-      <c r="A40" s="31">
+    <row r="40" spans="1:12" s="11" customFormat="1" ht="144">
+      <c r="A40" s="30">
         <v>42737</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="30">
         <v>42697</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="25">
         <v>1612815</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="34">
         <v>34056</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="34">
         <v>34056</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="J40" s="62" t="s">
+      <c r="J40" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="18" customFormat="1" ht="75">
-      <c r="A41" s="30">
+    <row r="41" spans="1:12" s="17" customFormat="1" ht="75">
+      <c r="A41" s="29">
         <v>42737</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="18" t="s">
+      <c r="H41" s="33"/>
+      <c r="I41" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="J41" s="65" t="s">
+      <c r="J41" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="9" customFormat="1" ht="240">
-      <c r="A42" s="7">
+    <row r="42" spans="1:12" s="8" customFormat="1" ht="240">
+      <c r="A42" s="6">
         <v>42741</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9">
+      <c r="B42" s="6"/>
+      <c r="C42" s="8">
         <v>1616676</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="34">
         <v>41163</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="34">
         <v>36923</v>
       </c>
-      <c r="I42" s="46" t="s">
+      <c r="I42" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="J42" s="62" t="s">
+      <c r="J42" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="K42" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="9" customFormat="1" ht="285">
-      <c r="A43" s="7">
+    <row r="43" spans="1:12" s="8" customFormat="1" ht="285">
+      <c r="A43" s="6">
         <v>42743</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>42713</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="34">
         <v>43350</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="34">
         <v>36070</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="J43" s="62" t="s">
+      <c r="J43" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="9" customFormat="1" ht="255">
-      <c r="A44" s="7">
+    <row r="44" spans="1:12" s="8" customFormat="1" ht="255">
+      <c r="A44" s="6">
         <v>42743</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>42716</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="34">
         <v>27363</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="34">
         <v>22154</v>
       </c>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="J44" s="47" t="s">
+      <c r="J44" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="K44" s="33" t="s">
+      <c r="K44" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="L44" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="9" customFormat="1" ht="225">
-      <c r="A45" s="7">
+    <row r="45" spans="1:12" s="8" customFormat="1" ht="225">
+      <c r="A45" s="6">
         <v>42744</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>42697</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>1607767</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="40">
         <v>41163</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="34">
         <v>34056</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="J45" s="47" t="s">
+      <c r="J45" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="9" customFormat="1" ht="240">
-      <c r="A46" s="7">
+    <row r="46" spans="1:12" s="8" customFormat="1" ht="240">
+      <c r="A46" s="6">
         <v>42744</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>42697</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>1607767</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="34">
         <v>41163</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="34">
         <v>34056</v>
       </c>
-      <c r="I46" s="46" t="s">
+      <c r="I46" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="J46" s="47" t="s">
+      <c r="J46" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="K46" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="L46" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="9" customFormat="1" ht="210">
-      <c r="A47" s="7">
+    <row r="47" spans="1:12" s="8" customFormat="1" ht="210">
+      <c r="A47" s="6">
         <v>42744</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>42716</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H47" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="I47" s="46" t="s">
+      <c r="I47" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="J47" s="47" t="s">
+      <c r="J47" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="9" customFormat="1" ht="210">
-      <c r="A48" s="7">
+    <row r="48" spans="1:12" s="8" customFormat="1" ht="210">
+      <c r="A48" s="6">
         <v>42745</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>42703</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="34">
         <v>33370</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="34">
         <v>31740</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="J48" s="47" t="s">
+      <c r="J48" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="9" customFormat="1" ht="210">
-      <c r="A49" s="7">
+    <row r="49" spans="1:13" s="8" customFormat="1" ht="210">
+      <c r="A49" s="6">
         <v>42746</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>42717</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G49" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="H49" s="35"/>
-      <c r="I49" s="46" t="s">
+      <c r="H49" s="34"/>
+      <c r="I49" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="J49" s="47" t="s">
+      <c r="J49" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="L49" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" ht="409.5">
-      <c r="A50" s="7">
+    <row r="50" spans="1:13" s="8" customFormat="1" ht="409.5">
+      <c r="A50" s="6">
         <v>42750</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>42720</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>1614419</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="34">
         <v>41163</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="34">
         <v>34056</v>
       </c>
-      <c r="I50" s="46" t="s">
+      <c r="I50" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="J50" s="47" t="s">
+      <c r="J50" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="8" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" ht="225">
-      <c r="A51" s="7">
+    <row r="51" spans="1:13" s="8" customFormat="1" ht="225">
+      <c r="A51" s="6">
         <v>42750</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>42712</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="E51" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="34">
         <v>33943</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="34">
         <v>28452</v>
       </c>
-      <c r="I51" s="46" t="s">
+      <c r="I51" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="J51" s="47" t="s">
+      <c r="J51" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="9" customFormat="1" ht="105">
-      <c r="A52" s="7">
+    <row r="52" spans="1:13" s="8" customFormat="1" ht="105">
+      <c r="A52" s="6">
         <v>42750</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G52" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="34">
         <v>32958</v>
       </c>
-      <c r="I52" s="46" t="s">
+      <c r="I52" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="J52" s="47" t="s">
+      <c r="J52" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="9" customFormat="1" ht="225">
-      <c r="A53" s="7">
+    <row r="53" spans="1:13" s="8" customFormat="1" ht="225">
+      <c r="A53" s="6">
         <v>42757</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>42724</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>1624771</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="34">
         <v>42820</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="34">
         <v>34247</v>
       </c>
-      <c r="I53" s="46" t="s">
+      <c r="I53" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="J53" s="47" t="s">
+      <c r="J53" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="L53" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="M53" s="9" t="s">
+      <c r="M53" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="14" customFormat="1" ht="225">
+      <c r="A54" s="37">
+        <v>42758</v>
+      </c>
+      <c r="B54" s="37">
+        <v>42739</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G54" s="33">
+        <v>38183</v>
+      </c>
+      <c r="H54" s="33">
+        <v>29301</v>
+      </c>
+      <c r="I54" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="J54" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="8" customFormat="1" ht="165">
+      <c r="A55" s="6">
+        <v>42759</v>
+      </c>
+      <c r="B55" s="6">
+        <v>42744</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1624100</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G55" s="58">
+        <v>41163</v>
+      </c>
+      <c r="H55" s="58">
+        <v>34056</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="J55" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="8" customFormat="1" ht="165">
+      <c r="A56" s="6">
+        <v>42762</v>
+      </c>
+      <c r="B56" s="6">
+        <v>42718</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="H56" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J56" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="8" customFormat="1" ht="360">
+      <c r="A57" s="6">
+        <v>42762</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7">
+        <v>1622207</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G57" s="58">
+        <v>41163</v>
+      </c>
+      <c r="H57" s="58">
+        <v>34056</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="8" customFormat="1" ht="270">
+      <c r="A58" s="6">
+        <v>42765</v>
+      </c>
+      <c r="B58" s="6">
+        <v>42741</v>
+      </c>
+      <c r="C58" s="7">
+        <v>65230</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="H58" s="58"/>
+      <c r="I58" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J58" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="8" customFormat="1" ht="390">
+      <c r="A59" s="6">
+        <v>42765</v>
+      </c>
+      <c r="B59" s="6">
+        <v>42751</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1622216</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" s="58">
+        <v>41163</v>
+      </c>
+      <c r="H59" s="58">
+        <v>34056</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="J59" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="8" customFormat="1" ht="210">
+      <c r="A60" s="6">
+        <v>42766</v>
+      </c>
+      <c r="B60" s="6">
+        <v>42718</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1616028</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" s="58">
+        <v>41163</v>
+      </c>
+      <c r="H60" s="58">
+        <v>34056</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="J60" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="8" customFormat="1" ht="360">
+      <c r="A61" s="6">
+        <v>42766</v>
+      </c>
+      <c r="B61" s="6">
+        <v>42741</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1625611</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G61" s="58">
+        <v>42820</v>
+      </c>
+      <c r="H61" s="58">
+        <v>29960</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J61" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="8" customFormat="1" ht="240">
+      <c r="A62" s="6">
+        <v>42767</v>
+      </c>
+      <c r="B62" s="6">
+        <v>42727</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1618836</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="58">
+        <v>34984</v>
+      </c>
+      <c r="H62" s="58">
+        <v>34056</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J62" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="14" customFormat="1" ht="225">
+      <c r="A63" s="37">
+        <v>42769</v>
+      </c>
+      <c r="B63" s="37">
+        <v>42741</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G63" s="61">
+        <v>38183</v>
+      </c>
+      <c r="H63" s="61">
+        <v>32004</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="J63" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="8" customFormat="1" ht="225">
+      <c r="A64" s="6">
+        <v>42769</v>
+      </c>
+      <c r="B64" s="6">
+        <v>42747</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1622209</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="58">
+        <v>41163</v>
+      </c>
+      <c r="H64" s="58">
+        <v>34056</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="J64" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" s="8" customFormat="1" ht="120">
+      <c r="A65" s="6">
+        <v>42771</v>
+      </c>
+      <c r="B65" s="6">
+        <v>42747</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G65" s="58">
+        <v>43350</v>
+      </c>
+      <c r="H65" s="58">
+        <v>36070</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="J65" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" s="8" customFormat="1" ht="360">
+      <c r="A66" s="6">
+        <v>42771</v>
+      </c>
+      <c r="B66" s="6">
+        <v>42753</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G66" s="58">
+        <v>41163</v>
+      </c>
+      <c r="H66" s="58">
+        <v>34056</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="J66" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" s="64" customFormat="1" ht="270">
+      <c r="A67" s="37">
+        <v>42771</v>
+      </c>
+      <c r="B67" s="37">
+        <v>42761</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="G67" s="63">
+        <v>45000</v>
+      </c>
+      <c r="H67" s="61">
+        <v>30000</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="J67" s="62" t="s">
+        <v>622</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
+      <c r="AI67" s="14"/>
+      <c r="AJ67" s="14"/>
+      <c r="AK67" s="14"/>
+      <c r="AL67" s="14"/>
+      <c r="AM67" s="14"/>
+      <c r="AN67" s="14"/>
+      <c r="AO67" s="14"/>
+      <c r="AP67" s="14"/>
+      <c r="AQ67" s="14"/>
+      <c r="AR67" s="14"/>
+      <c r="AS67" s="14"/>
+      <c r="AT67" s="14"/>
+    </row>
+    <row r="68" spans="1:46" s="8" customFormat="1" ht="165">
+      <c r="A68" s="6">
+        <v>42773</v>
+      </c>
+      <c r="B68" s="6">
+        <v>42739</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G68" s="58">
+        <v>36001</v>
+      </c>
+      <c r="H68" s="58">
+        <v>32004</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J68" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" s="8" customFormat="1" ht="210">
+      <c r="A69" s="6">
+        <v>42774</v>
+      </c>
+      <c r="B69" s="6">
+        <v>42744</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="58">
+        <v>37970</v>
+      </c>
+      <c r="H69" s="58">
+        <v>36070</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="J69" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="K69" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" s="8" customFormat="1" ht="225">
+      <c r="A70" s="6">
+        <v>42774</v>
+      </c>
+      <c r="B70" s="6">
+        <v>42759</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1945210953</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G70" s="58">
+        <v>31000</v>
+      </c>
+      <c r="H70" s="58"/>
+      <c r="I70" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="J70" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" s="8" customFormat="1" ht="210">
+      <c r="A71" s="6">
+        <v>42775</v>
+      </c>
+      <c r="B71" s="6">
+        <v>42745</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G71" s="58">
+        <v>43350</v>
+      </c>
+      <c r="H71" s="58">
+        <v>36070</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="J71" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="K71" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" s="8" customFormat="1" ht="135">
+      <c r="A72" s="6">
+        <v>42775</v>
+      </c>
+      <c r="B72" s="6">
+        <v>42758</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G72" s="58">
+        <v>38183</v>
+      </c>
+      <c r="H72" s="58">
+        <v>32004</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="J72" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" s="8" customFormat="1" ht="210">
+      <c r="A73" s="6">
+        <v>42776</v>
+      </c>
+      <c r="B73" s="6">
+        <v>42744</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G73" s="58">
+        <v>29410</v>
+      </c>
+      <c r="H73" s="58">
+        <v>26650</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J73" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="K73" s="67"/>
+      <c r="L73" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" s="8" customFormat="1" ht="225">
+      <c r="A74" s="6">
+        <v>42776</v>
+      </c>
+      <c r="B74" s="6">
+        <v>42746</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G74" s="58">
+        <v>38183</v>
+      </c>
+      <c r="H74" s="58">
+        <v>29301</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="J74" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="K74" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" s="8" customFormat="1" ht="240">
+      <c r="A75" s="6">
+        <v>42777</v>
+      </c>
+      <c r="B75" s="6">
+        <v>42761</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1625194</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G75" s="58">
+        <v>32281</v>
+      </c>
+      <c r="H75" s="58">
+        <v>27545</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="J75" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" s="8" customFormat="1" ht="195">
+      <c r="A76" s="6">
+        <v>42779</v>
+      </c>
+      <c r="B76" s="6">
+        <v>42748</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="G76" s="58">
+        <v>43350</v>
+      </c>
+      <c r="H76" s="58">
+        <v>31740</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J76" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" s="8" customFormat="1" ht="120">
+      <c r="A77" s="6">
+        <v>42781</v>
+      </c>
+      <c r="B77" s="6">
+        <v>42758</v>
+      </c>
+      <c r="C77" s="7">
+        <v>82613</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="H77" s="58"/>
+      <c r="I77" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="J77" s="59"/>
+      <c r="L77" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" s="8" customFormat="1" ht="255">
+      <c r="A78" s="6">
+        <v>42785</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1626730</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G78" s="58">
+        <v>42820</v>
+      </c>
+      <c r="H78" s="58">
+        <v>29960</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="J78" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" s="14" customFormat="1" ht="330">
+      <c r="A79" s="37">
+        <v>42786</v>
+      </c>
+      <c r="B79" s="37">
+        <v>42752</v>
+      </c>
+      <c r="C79" s="13">
+        <v>38571</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="E79" s="39" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" s="15" customFormat="1" ht="225">
-      <c r="A54" s="39">
-        <v>42758</v>
-      </c>
-      <c r="B54" s="39">
-        <v>42739</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="G54" s="34">
+      <c r="F79" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="G79" s="61">
         <v>38183</v>
       </c>
-      <c r="H54" s="34">
+      <c r="H79" s="61">
+        <v>32004</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="J79" s="62" t="s">
+        <v>491</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="L79" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" s="8" customFormat="1" ht="210">
+      <c r="A80" s="6">
+        <v>42786</v>
+      </c>
+      <c r="B80" s="6">
+        <v>42755</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1623610</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G80" s="58">
+        <v>41163</v>
+      </c>
+      <c r="H80" s="58">
+        <v>34056</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="J80" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" s="8" customFormat="1" ht="225">
+      <c r="A81" s="6">
+        <v>42787</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="G81" s="58">
+        <v>38183</v>
+      </c>
+      <c r="H81" s="58">
+        <v>25298</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="J81" s="59" t="s">
+        <v>731</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" s="14" customFormat="1" ht="210">
+      <c r="A82" s="37">
+        <v>42788</v>
+      </c>
+      <c r="B82" s="37">
+        <v>42760</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="E82" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="G82" s="61">
+        <v>40663</v>
+      </c>
+      <c r="H82" s="61">
+        <v>32929</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="J82" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="M82" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" ht="96">
+      <c r="A83" s="68">
+        <v>42790</v>
+      </c>
+      <c r="B83" s="31">
+        <v>41677</v>
+      </c>
+      <c r="C83" s="27">
+        <v>65286</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G83" s="57">
+        <v>28000</v>
+      </c>
+      <c r="H83" s="35">
+        <v>25000</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="N83" s="65">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" ht="288">
+      <c r="A84" s="31">
+        <v>42792</v>
+      </c>
+      <c r="B84" s="31">
+        <v>42759</v>
+      </c>
+      <c r="C84" s="27">
+        <v>1628834</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G84" s="35">
+        <v>38183</v>
+      </c>
+      <c r="H84" s="35">
         <v>29301</v>
       </c>
-      <c r="I54" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="J54" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="9" customFormat="1" ht="165">
-      <c r="A55" s="7">
-        <v>42759</v>
-      </c>
-      <c r="B55" s="7">
-        <v>42744</v>
-      </c>
-      <c r="C55" s="8">
-        <v>1624100</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="G55" s="61">
-        <v>41163</v>
-      </c>
-      <c r="H55" s="61">
-        <v>34056</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="J55" s="62" t="s">
-        <v>420</v>
-      </c>
-      <c r="K55" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="9" customFormat="1" ht="165">
-      <c r="A56" s="7">
+      <c r="I84" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" ht="228">
+      <c r="A85" s="31">
+        <v>42792</v>
+      </c>
+      <c r="B85" s="31">
+        <v>42760</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G85" s="35">
+        <v>36001</v>
+      </c>
+      <c r="H85" s="35">
+        <v>30175</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="K85" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" ht="84">
+      <c r="A86" s="68">
+        <v>42792</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F86" s="71" t="s">
+        <v>766</v>
+      </c>
+      <c r="G86" s="70" t="s">
+        <v>767</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="N86" s="65">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" ht="108">
+      <c r="A87" s="31">
+        <v>42795</v>
+      </c>
+      <c r="B87" s="31">
         <v>42762</v>
       </c>
-      <c r="B56" s="7">
-        <v>42718</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G56" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="H56" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="J56" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="9" customFormat="1" ht="360">
-      <c r="A57" s="7">
-        <v>42762</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8">
-        <v>1622207</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="G57" s="61">
-        <v>41163</v>
-      </c>
-      <c r="H57" s="61">
-        <v>34056</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="J57" s="62" t="s">
-        <v>477</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="9" customFormat="1" ht="270">
-      <c r="A58" s="7">
+      <c r="C87" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F87" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="G87" s="35">
+        <v>29301</v>
+      </c>
+      <c r="H87" s="35">
+        <v>38183</v>
+      </c>
+      <c r="I87" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" ht="132">
+      <c r="A88" s="31">
+        <v>42795</v>
+      </c>
+      <c r="B88" s="31">
         <v>42765</v>
       </c>
-      <c r="B58" s="7">
-        <v>42741</v>
-      </c>
-      <c r="C58" s="8">
-        <v>65230</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="G58" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="H58" s="61"/>
-      <c r="I58" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="J58" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="K58" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="9" customFormat="1" ht="390">
-      <c r="A59" s="7">
+      <c r="C88" s="27">
+        <v>38806</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F88" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="G88" s="35">
+        <v>38183</v>
+      </c>
+      <c r="H88" s="35">
+        <v>32004</v>
+      </c>
+      <c r="I88" s="50" t="s">
+        <v>590</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" s="56" customFormat="1" ht="156">
+      <c r="A89" s="68">
+        <v>42796</v>
+      </c>
+      <c r="B89" s="31">
         <v>42765</v>
       </c>
-      <c r="B59" s="7">
-        <v>42751</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1622216</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="G59" s="61">
-        <v>41163</v>
-      </c>
-      <c r="H59" s="61">
-        <v>34056</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="J59" s="62" t="s">
-        <v>483</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="9" customFormat="1" ht="210">
-      <c r="A60" s="7">
-        <v>42766</v>
-      </c>
-      <c r="B60" s="7">
-        <v>42718</v>
-      </c>
-      <c r="C60" s="8">
-        <v>1616028</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G60" s="61">
-        <v>41163</v>
-      </c>
-      <c r="H60" s="61">
-        <v>34056</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="J60" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="9" customFormat="1" ht="360">
-      <c r="A61" s="7">
-        <v>42766</v>
-      </c>
-      <c r="B61" s="7">
-        <v>42741</v>
-      </c>
-      <c r="C61" s="8">
-        <v>1625611</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G61" s="61">
-        <v>42820</v>
-      </c>
-      <c r="H61" s="61">
-        <v>29960</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="J61" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="9" customFormat="1" ht="240">
-      <c r="A62" s="7">
-        <v>42767</v>
-      </c>
-      <c r="B62" s="7">
-        <v>42727</v>
-      </c>
-      <c r="C62" s="8">
-        <v>1618836</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G62" s="61">
-        <v>34984</v>
-      </c>
-      <c r="H62" s="61">
-        <v>34056</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="J62" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="15" customFormat="1" ht="225">
-      <c r="A63" s="39">
-        <v>42769</v>
-      </c>
-      <c r="B63" s="39">
-        <v>42741</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G63" s="64">
+      <c r="C89" s="27">
+        <v>127306</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>580</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F89" s="49" t="s">
+        <v>582</v>
+      </c>
+      <c r="G89" s="35">
         <v>38183</v>
       </c>
-      <c r="H63" s="64">
-        <v>32004</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="J63" s="65" t="s">
-        <v>359</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="9" customFormat="1" ht="225">
-      <c r="A64" s="7">
-        <v>42769</v>
-      </c>
-      <c r="B64" s="7">
-        <v>42747</v>
-      </c>
-      <c r="C64" s="8">
-        <v>1622209</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G64" s="61">
-        <v>41163</v>
-      </c>
-      <c r="H64" s="61">
-        <v>34056</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="J64" s="62" t="s">
-        <v>450</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="65" spans="1:46" s="9" customFormat="1" ht="120">
-      <c r="A65" s="7">
-        <v>42771</v>
-      </c>
-      <c r="B65" s="7">
-        <v>42747</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="G65" s="61">
-        <v>43350</v>
-      </c>
-      <c r="H65" s="61">
-        <v>36070</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="J65" s="62" t="s">
-        <v>457</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="66" spans="1:46" s="9" customFormat="1" ht="360">
-      <c r="A66" s="7">
-        <v>42771</v>
-      </c>
-      <c r="B66" s="7">
-        <v>42753</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="G66" s="61">
-        <v>41163</v>
-      </c>
-      <c r="H66" s="61">
-        <v>34056</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="J66" s="62" t="s">
-        <v>507</v>
-      </c>
-      <c r="K66" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="67" spans="1:46" s="67" customFormat="1" ht="270">
-      <c r="A67" s="39">
-        <v>42771</v>
-      </c>
-      <c r="B67" s="39">
-        <v>42761</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="41" t="s">
-        <v>622</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="G67" s="66">
-        <v>45000</v>
-      </c>
-      <c r="H67" s="64">
-        <v>30000</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="J67" s="65" t="s">
-        <v>625</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
-      <c r="AD67" s="15"/>
-      <c r="AE67" s="15"/>
-      <c r="AF67" s="15"/>
-      <c r="AG67" s="15"/>
-      <c r="AH67" s="15"/>
-      <c r="AI67" s="15"/>
-      <c r="AJ67" s="15"/>
-      <c r="AK67" s="15"/>
-      <c r="AL67" s="15"/>
-      <c r="AM67" s="15"/>
-      <c r="AN67" s="15"/>
-      <c r="AO67" s="15"/>
-      <c r="AP67" s="15"/>
-      <c r="AQ67" s="15"/>
-      <c r="AR67" s="15"/>
-      <c r="AS67" s="15"/>
-      <c r="AT67" s="15"/>
-    </row>
-    <row r="68" spans="1:46" s="9" customFormat="1" ht="165">
-      <c r="A68" s="7">
-        <v>42773</v>
-      </c>
-      <c r="B68" s="7">
-        <v>42739</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="G68" s="61">
-        <v>36001</v>
-      </c>
-      <c r="H68" s="61">
-        <v>32004</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="J68" s="62" t="s">
-        <v>388</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:46" s="9" customFormat="1" ht="210">
-      <c r="A69" s="7">
-        <v>42774</v>
-      </c>
-      <c r="B69" s="7">
-        <v>42744</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" s="61">
-        <v>37970</v>
-      </c>
-      <c r="H69" s="61">
-        <v>36070</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="J69" s="62" t="s">
-        <v>407</v>
-      </c>
-      <c r="K69" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="70" spans="1:46" s="9" customFormat="1" ht="225">
-      <c r="A70" s="7">
-        <v>42774</v>
-      </c>
-      <c r="B70" s="7">
-        <v>42759</v>
-      </c>
-      <c r="C70" s="8">
-        <v>1945210953</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="G70" s="61">
-        <v>31000</v>
-      </c>
-      <c r="H70" s="61"/>
-      <c r="I70" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="J70" s="62" t="s">
-        <v>526</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:46" s="9" customFormat="1" ht="210">
-      <c r="A71" s="7">
-        <v>42775</v>
-      </c>
-      <c r="B71" s="7">
-        <v>42745</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="G71" s="61">
-        <v>43350</v>
-      </c>
-      <c r="H71" s="61">
-        <v>36070</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="J71" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="K71" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="72" spans="1:46" s="9" customFormat="1" ht="135">
-      <c r="A72" s="7">
-        <v>42775</v>
-      </c>
-      <c r="B72" s="7">
-        <v>42758</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="G72" s="61">
-        <v>38183</v>
-      </c>
-      <c r="H72" s="61">
-        <v>32004</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="J72" s="62" t="s">
-        <v>519</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:46" s="9" customFormat="1" ht="210">
-      <c r="A73" s="7">
-        <v>42776</v>
-      </c>
-      <c r="B73" s="7">
-        <v>42744</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="G73" s="61">
-        <v>29410</v>
-      </c>
-      <c r="H73" s="61">
-        <v>26650</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="J73" s="62" t="s">
-        <v>670</v>
-      </c>
-      <c r="K73" s="70"/>
-      <c r="L73" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="74" spans="1:46" s="9" customFormat="1" ht="225">
-      <c r="A74" s="7">
-        <v>42776</v>
-      </c>
-      <c r="B74" s="7">
-        <v>42746</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G74" s="61">
-        <v>38183</v>
-      </c>
-      <c r="H74" s="61">
-        <v>29301</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="J74" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="K74" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="75" spans="1:46" s="9" customFormat="1" ht="240">
-      <c r="A75" s="7">
-        <v>42777</v>
-      </c>
-      <c r="B75" s="7">
-        <v>42761</v>
-      </c>
-      <c r="C75" s="8">
-        <v>1625194</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="G75" s="61">
-        <v>32281</v>
-      </c>
-      <c r="H75" s="61">
-        <v>27545</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="J75" s="62" t="s">
-        <v>547</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="76" spans="1:46" ht="144">
-      <c r="A76" s="32">
-        <v>42779</v>
-      </c>
-      <c r="B76" s="32">
-        <v>42748</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G76" s="36">
-        <v>43350</v>
-      </c>
-      <c r="H76" s="36">
-        <v>31740</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="J76" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="77" spans="1:46" ht="105">
-      <c r="A77" s="32">
-        <v>42781</v>
-      </c>
-      <c r="B77" s="32">
-        <v>42758</v>
-      </c>
-      <c r="C77" s="28">
-        <v>82613</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G77" s="36" t="s">
-        <v>510</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="78" spans="1:46" ht="180">
-      <c r="A78" s="32">
-        <v>42785</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="C78" s="28">
-        <v>1626730</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G78" s="36">
-        <v>42820</v>
-      </c>
-      <c r="H78" s="36">
-        <v>29960</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J78" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="79" spans="1:46" ht="228">
-      <c r="A79" s="71">
-        <v>42786</v>
-      </c>
-      <c r="B79" s="32">
-        <v>42752</v>
-      </c>
-      <c r="C79" s="28">
-        <v>38571</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G79" s="36">
-        <v>38183</v>
-      </c>
-      <c r="H79" s="36">
-        <v>32004</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="80" spans="1:46" ht="144">
-      <c r="A80" s="71">
-        <v>42786</v>
-      </c>
-      <c r="B80" s="32">
-        <v>42755</v>
-      </c>
-      <c r="C80" s="28">
-        <v>1623610</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G80" s="36">
-        <v>41163</v>
-      </c>
-      <c r="H80" s="36">
-        <v>34056</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="J80" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="81" spans="1:46" ht="156">
-      <c r="A81" s="32">
-        <v>42787</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>551</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F81" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="G81" s="36">
-        <v>38183</v>
-      </c>
-      <c r="H81" s="36">
-        <v>25298</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="J81" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="M81" s="53" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="82" spans="1:46" s="51" customFormat="1" ht="156">
-      <c r="A82" s="71">
-        <v>42788</v>
-      </c>
-      <c r="B82" s="32">
-        <v>42760</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G82" s="36">
-        <v>40663</v>
-      </c>
-      <c r="H82" s="36">
-        <v>32929</v>
-      </c>
-      <c r="I82" s="52" t="s">
-        <v>580</v>
-      </c>
-      <c r="J82" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2"/>
-      <c r="AI82" s="2"/>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
-      <c r="AM82" s="2"/>
-      <c r="AN82" s="2"/>
-      <c r="AO82" s="2"/>
-      <c r="AP82" s="2"/>
-      <c r="AQ82" s="2"/>
-      <c r="AR82" s="2"/>
-      <c r="AS82" s="2"/>
-      <c r="AT82" s="2"/>
-    </row>
-    <row r="83" spans="1:46" ht="96">
-      <c r="A83" s="71">
-        <v>42790</v>
-      </c>
-      <c r="B83" s="32">
-        <v>41677</v>
-      </c>
-      <c r="C83" s="28">
-        <v>65286</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G83" s="60">
-        <v>28000</v>
-      </c>
-      <c r="H83" s="36">
-        <v>25000</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="J83" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="N83" s="68">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="84" spans="1:46" ht="288">
-      <c r="A84" s="32">
-        <v>42792</v>
-      </c>
-      <c r="B84" s="32">
-        <v>42759</v>
-      </c>
-      <c r="C84" s="28">
-        <v>1628834</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G84" s="36">
-        <v>38183</v>
-      </c>
-      <c r="H84" s="36">
-        <v>29301</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="J84" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="85" spans="1:46" ht="228">
-      <c r="A85" s="32">
-        <v>42792</v>
-      </c>
-      <c r="B85" s="32">
-        <v>42760</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G85" s="36">
-        <v>36001</v>
-      </c>
-      <c r="H85" s="36">
-        <v>30175</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="J85" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="K85" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="86" spans="1:46" ht="108">
-      <c r="A86" s="32">
-        <v>42795</v>
-      </c>
-      <c r="B86" s="32">
-        <v>42762</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>570</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="F86" s="51" t="s">
-        <v>571</v>
-      </c>
-      <c r="G86" s="36">
-        <v>29301</v>
-      </c>
-      <c r="H86" s="36">
-        <v>38183</v>
-      </c>
-      <c r="I86" s="52" t="s">
-        <v>573</v>
-      </c>
-      <c r="J86" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="87" spans="1:46" ht="132">
-      <c r="A87" s="32">
-        <v>42795</v>
-      </c>
-      <c r="B87" s="32">
-        <v>42765</v>
-      </c>
-      <c r="C87" s="28">
-        <v>38806</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>590</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F87" s="51" t="s">
-        <v>597</v>
-      </c>
-      <c r="G87" s="36">
-        <v>38183</v>
-      </c>
-      <c r="H87" s="36">
-        <v>32004</v>
-      </c>
-      <c r="I87" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="J87" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="88" spans="1:46" ht="156">
-      <c r="A88" s="32">
-        <v>42796</v>
-      </c>
-      <c r="B88" s="32">
-        <v>42765</v>
-      </c>
-      <c r="C88" s="28">
-        <v>127306</v>
-      </c>
-      <c r="D88" s="51" t="s">
+      <c r="H89" s="35">
+        <v>31076</v>
+      </c>
+      <c r="I89" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="L89" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="F88" s="51" t="s">
-        <v>585</v>
-      </c>
-      <c r="G88" s="36">
-        <v>38183</v>
-      </c>
-      <c r="H88" s="36">
-        <v>31076</v>
-      </c>
-      <c r="I88" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="J88" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="89" spans="1:46" s="59" customFormat="1" ht="72">
-      <c r="A89" s="32">
-        <v>42796</v>
-      </c>
-      <c r="B89" s="32">
-        <v>42766</v>
-      </c>
-      <c r="C89" s="28">
-        <v>38802</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F89" s="51" t="s">
-        <v>597</v>
-      </c>
-      <c r="G89" s="60">
-        <v>38183</v>
-      </c>
-      <c r="H89" s="60">
-        <v>32004</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="J89" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -7125,804 +7223,1146 @@
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
     </row>
-    <row r="90" spans="1:46" ht="132">
-      <c r="A90" s="71">
+    <row r="90" spans="1:46" ht="72">
+      <c r="A90" s="31">
+        <v>42796</v>
+      </c>
+      <c r="B90" s="31">
+        <v>42766</v>
+      </c>
+      <c r="C90" s="27">
+        <v>38802</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F90" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="G90" s="57">
+        <v>38183</v>
+      </c>
+      <c r="H90" s="57">
+        <v>32004</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" ht="132">
+      <c r="A91" s="68">
         <v>42797</v>
       </c>
-      <c r="B90" s="32">
+      <c r="B91" s="31">
         <v>42762</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C91" s="27">
         <v>127027</v>
       </c>
-      <c r="D90" s="51" t="s">
+      <c r="D91" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F91" s="49" t="s">
         <v>562</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="F90" s="51" t="s">
-        <v>565</v>
-      </c>
-      <c r="G90" s="36">
+      <c r="G91" s="35">
         <v>38183</v>
       </c>
-      <c r="H90" s="36">
+      <c r="H91" s="35">
         <v>31076</v>
       </c>
-      <c r="I90" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="J90" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="K90" s="4" t="s">
+      <c r="I91" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="J91" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="91" spans="1:46" ht="108">
-      <c r="A91" s="32">
+      <c r="L91" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" ht="108">
+      <c r="A92" s="31">
         <v>42797</v>
       </c>
-      <c r="B91" s="32">
+      <c r="B92" s="31">
         <v>42767</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C92" s="27">
         <v>38805</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E91" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="F91" s="51" t="s">
+      <c r="E92" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="F92" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="G92" s="35">
+        <v>38183</v>
+      </c>
+      <c r="H92" s="35">
+        <v>32004</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="J92" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" ht="204">
+      <c r="A93" s="31">
+        <v>42797</v>
+      </c>
+      <c r="B93" s="31">
+        <v>42769</v>
+      </c>
+      <c r="C93" s="27">
+        <v>127495</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G93" s="57">
+        <v>38183</v>
+      </c>
+      <c r="H93" s="35">
+        <v>31076</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="J93" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="K93" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" ht="144">
+      <c r="A94" s="31">
+        <v>42799</v>
+      </c>
+      <c r="B94" s="31">
+        <v>42768</v>
+      </c>
+      <c r="C94" s="27" t="s">
         <v>601</v>
       </c>
-      <c r="G91" s="36">
+      <c r="D94" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G94" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="I94" s="50" t="s">
+        <v>606</v>
+      </c>
+      <c r="J94" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46" ht="180">
+      <c r="A95" s="31">
+        <v>42800</v>
+      </c>
+      <c r="B95" s="31">
+        <v>42772</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G95" s="57">
+        <v>32975</v>
+      </c>
+      <c r="H95" s="35">
+        <v>30162</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="J95" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="N95" s="65">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" ht="96">
+      <c r="A96" s="31">
+        <v>42800</v>
+      </c>
+      <c r="B96" s="31">
+        <v>42403</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G96" s="57">
+        <v>32975</v>
+      </c>
+      <c r="H96" s="35">
+        <v>30162</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="N96" s="65">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" ht="264">
+      <c r="A97" s="31">
+        <v>42802</v>
+      </c>
+      <c r="B97" s="31">
+        <v>42773</v>
+      </c>
+      <c r="C97" s="27">
+        <v>56523</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G97" s="35">
+        <v>40523</v>
+      </c>
+      <c r="H97" s="35">
+        <v>29301</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="J97" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="N97" s="65">
+        <v>42775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" ht="204">
+      <c r="A98" s="31">
+        <v>42802</v>
+      </c>
+      <c r="B98" s="31">
+        <v>42780</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G98" s="42">
+        <v>32000</v>
+      </c>
+      <c r="H98" s="42">
+        <v>32000</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="J98" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="N98" s="65">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" ht="264">
+      <c r="A99" s="31">
+        <v>42803</v>
+      </c>
+      <c r="B99" s="31">
+        <v>42776</v>
+      </c>
+      <c r="C99" s="27">
+        <v>1628058</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G99" s="35">
+        <v>35938</v>
+      </c>
+      <c r="H99" s="35">
+        <v>34056</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="J99" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="K99" s="66" t="s">
+        <v>661</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="N99" s="65">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46" ht="45">
+      <c r="A100" s="31">
+        <v>42807</v>
+      </c>
+      <c r="B100" s="31">
+        <v>42747</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="H100" s="43"/>
+      <c r="I100" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J100" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+      <c r="AG100"/>
+      <c r="AH100"/>
+      <c r="AI100"/>
+      <c r="AJ100"/>
+      <c r="AK100"/>
+      <c r="AL100"/>
+      <c r="AM100"/>
+      <c r="AN100"/>
+      <c r="AO100"/>
+      <c r="AP100"/>
+      <c r="AQ100"/>
+      <c r="AR100"/>
+      <c r="AS100"/>
+      <c r="AT100"/>
+    </row>
+    <row r="101" spans="1:46" ht="132">
+      <c r="A101" s="31">
+        <v>42807</v>
+      </c>
+      <c r="B101" s="31">
+        <v>42779</v>
+      </c>
+      <c r="C101" s="27">
+        <v>127661</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G101" s="57">
         <v>38183</v>
       </c>
-      <c r="H91" s="36">
+      <c r="H101" s="35">
+        <v>31076</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="J101" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="N101" s="65">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46" ht="132">
+      <c r="A102" s="31">
+        <v>42808</v>
+      </c>
+      <c r="B102" s="31">
+        <v>42788</v>
+      </c>
+      <c r="C102" s="27">
+        <v>1631729</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G102" s="35">
+        <v>38981</v>
+      </c>
+      <c r="H102" s="35">
+        <v>34056</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="J102" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="K102"/>
+      <c r="L102" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="N102" s="65">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46" ht="144">
+      <c r="A103" s="31">
+        <v>42808</v>
+      </c>
+      <c r="B103" s="31">
+        <v>42789</v>
+      </c>
+      <c r="C103" s="27">
+        <v>1626880</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F103" s="71" t="s">
+        <v>760</v>
+      </c>
+      <c r="G103" s="35">
+        <v>49904</v>
+      </c>
+      <c r="H103" s="35">
+        <v>42304</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="J103" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="N103" s="65">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" ht="156">
+      <c r="A104" s="31">
+        <v>42809</v>
+      </c>
+      <c r="B104" s="31">
+        <v>42781</v>
+      </c>
+      <c r="C104" s="27">
+        <v>1632875</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G104" s="42">
+        <v>38183</v>
+      </c>
+      <c r="H104" s="35">
+        <v>29301</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="J104" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="N104" s="65">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46" ht="264">
+      <c r="A105" s="31">
+        <v>42809</v>
+      </c>
+      <c r="B105" s="31">
+        <v>42787</v>
+      </c>
+      <c r="C105" s="27">
+        <v>1628043</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G105" s="57">
+        <v>31432</v>
+      </c>
+      <c r="H105" s="35">
+        <v>29809</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="J105" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="N105" s="65">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46" ht="132">
+      <c r="A106" s="31">
+        <v>42810</v>
+      </c>
+      <c r="B106" s="31">
+        <v>42780</v>
+      </c>
+      <c r="C106" s="27">
+        <v>129570</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G106" s="35">
+        <v>31076</v>
+      </c>
+      <c r="H106" s="57">
+        <v>31076</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="J106" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="N106" s="65">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" ht="144">
+      <c r="A107" s="31">
+        <v>42811</v>
+      </c>
+      <c r="B107" s="31">
+        <v>42781</v>
+      </c>
+      <c r="C107" s="27">
+        <v>1630008</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G107" s="42">
+        <v>41163</v>
+      </c>
+      <c r="H107" s="35">
+        <v>34056</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="J107" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="N107" s="65">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" ht="132">
+      <c r="A108" s="31">
+        <v>42811</v>
+      </c>
+      <c r="B108" s="31">
+        <v>42781</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G108" s="42">
+        <v>38183</v>
+      </c>
+      <c r="H108" s="35">
         <v>32004</v>
       </c>
-      <c r="I91" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="J91" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="92" spans="1:46" ht="204">
-      <c r="A92" s="32">
-        <v>42797</v>
-      </c>
-      <c r="B92" s="32">
-        <v>42769</v>
-      </c>
-      <c r="C92" s="28">
-        <v>127495</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>616</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G92" s="60">
+      <c r="I108" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="J108" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="N108" s="65">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="120">
+      <c r="A109" s="31">
+        <v>42811</v>
+      </c>
+      <c r="B109" s="31">
+        <v>42781</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G109" s="42">
         <v>38183</v>
       </c>
-      <c r="H92" s="36">
+      <c r="H109" s="35">
+        <v>32004</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="J109" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="N109" s="65">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" ht="120">
+      <c r="A110" s="31">
+        <v>42815</v>
+      </c>
+      <c r="B110" s="31">
+        <v>42787</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G110" s="35">
+        <v>38183</v>
+      </c>
+      <c r="H110" s="57">
         <v>31076</v>
       </c>
-      <c r="I92" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="J92" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="K92" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:46" ht="144">
-      <c r="A93" s="32">
-        <v>42799</v>
-      </c>
-      <c r="B93" s="32">
-        <v>42768</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G93" s="60" t="s">
-        <v>605</v>
-      </c>
-      <c r="I93" s="52" t="s">
-        <v>609</v>
-      </c>
-      <c r="J93" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:46" ht="180">
-      <c r="A94" s="32">
-        <v>42800</v>
-      </c>
-      <c r="B94" s="32">
-        <v>42772</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>630</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G94" s="60">
-        <v>32975</v>
-      </c>
-      <c r="H94" s="36">
-        <v>30162</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="J94" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="N94" s="68">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="95" spans="1:46" ht="96">
-      <c r="A95" s="32">
-        <v>42800</v>
-      </c>
-      <c r="B95" s="32">
-        <v>42403</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>644</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G95" s="60">
-        <v>32975</v>
-      </c>
-      <c r="H95" s="36">
-        <v>30162</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="N95" s="68">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="96" spans="1:46" ht="264">
-      <c r="A96" s="32">
-        <v>42802</v>
-      </c>
-      <c r="B96" s="32">
-        <v>42773</v>
-      </c>
-      <c r="C96" s="28">
-        <v>56523</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G96" s="36">
-        <v>40523</v>
-      </c>
-      <c r="H96" s="36">
-        <v>29301</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="J96" s="23" t="s">
+      <c r="I110" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="N110" s="65">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="132">
+      <c r="A111" s="31">
+        <v>42816</v>
+      </c>
+      <c r="B111" s="31">
+        <v>42789</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="F111" s="71" t="s">
+        <v>780</v>
+      </c>
+      <c r="G111" s="70">
+        <v>33943</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="J111" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="112" spans="1:46" ht="156">
+      <c r="A112" s="31">
+        <v>42817</v>
+      </c>
+      <c r="B112" s="31">
+        <v>42789</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G112" s="70" t="s">
+        <v>744</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="J112" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="K112" s="69"/>
+      <c r="L112" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="N112" s="65">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="113" spans="1:46" ht="120">
+      <c r="A113" s="68">
+        <v>42819</v>
+      </c>
+      <c r="B113" s="31">
+        <v>42789</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="F113" s="71" t="s">
+        <v>754</v>
+      </c>
+      <c r="G113" s="70" t="s">
+        <v>749</v>
+      </c>
+      <c r="H113" s="35">
+        <v>32958</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="J113" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="N113" s="65">
+        <v>42789</v>
+      </c>
+    </row>
+    <row r="114" spans="1:46" ht="96">
+      <c r="A114" s="68">
+        <v>42819</v>
+      </c>
+      <c r="B114" s="31">
+        <v>42789</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F114" s="71" t="s">
+        <v>774</v>
+      </c>
+      <c r="G114" s="70" t="s">
+        <v>749</v>
+      </c>
+      <c r="H114" s="35">
+        <v>32958</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J114" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="N114" s="65">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="115" spans="1:46" ht="156">
+      <c r="A115" s="31">
+        <v>42820</v>
+      </c>
+      <c r="B115" s="31">
+        <v>42776</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G115" s="57">
+        <v>43350</v>
+      </c>
+      <c r="H115" s="57">
+        <v>36070</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="J115" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="N115" s="65">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="116" spans="1:46">
+      <c r="A116" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K116" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="L116" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="M116" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="N116" s="52" t="s">
         <v>649</v>
       </c>
-      <c r="K96" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="N96" s="68">
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="97" spans="1:46" ht="204">
-      <c r="A97" s="32">
-        <v>42802</v>
-      </c>
-      <c r="B97" s="32">
-        <v>42780</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G97" s="44">
-        <v>32000</v>
-      </c>
-      <c r="H97" s="44">
-        <v>32000</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="J97" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="N97" s="68">
-        <v>42781</v>
-      </c>
-    </row>
-    <row r="98" spans="1:46" ht="264">
-      <c r="A98" s="32">
-        <v>42803</v>
-      </c>
-      <c r="B98" s="32">
-        <v>42776</v>
-      </c>
-      <c r="C98" s="28">
-        <v>1628058</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="G98" s="36">
-        <v>35938</v>
-      </c>
-      <c r="H98" s="36">
-        <v>34056</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="J98" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="K98" s="69" t="s">
-        <v>664</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="N98" s="68">
-        <v>42777</v>
-      </c>
-    </row>
-    <row r="99" spans="1:46" ht="45">
-      <c r="A99" s="32">
-        <v>42807</v>
-      </c>
-      <c r="B99" s="32">
-        <v>42747</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G99" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="H99" s="45"/>
-      <c r="I99" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J99" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
-      <c r="R99"/>
-      <c r="S99"/>
-      <c r="T99"/>
-      <c r="U99"/>
-      <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
-      <c r="Y99"/>
-      <c r="Z99"/>
-      <c r="AA99"/>
-      <c r="AB99"/>
-      <c r="AC99"/>
-      <c r="AD99"/>
-      <c r="AE99"/>
-      <c r="AF99"/>
-      <c r="AG99"/>
-      <c r="AH99"/>
-      <c r="AI99"/>
-      <c r="AJ99"/>
-      <c r="AK99"/>
-      <c r="AL99"/>
-      <c r="AM99"/>
-      <c r="AN99"/>
-      <c r="AO99"/>
-      <c r="AP99"/>
-      <c r="AQ99"/>
-      <c r="AR99"/>
-      <c r="AS99"/>
-      <c r="AT99"/>
-    </row>
-    <row r="100" spans="1:46" ht="132">
-      <c r="A100" s="32">
-        <v>42807</v>
-      </c>
-      <c r="B100" s="32">
-        <v>42779</v>
-      </c>
-      <c r="C100" s="28">
-        <v>127661</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="G100" s="60">
-        <v>38183</v>
-      </c>
-      <c r="H100" s="36">
-        <v>31076</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="J100" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="N100" s="68">
-        <v>42780</v>
-      </c>
-    </row>
-    <row r="101" spans="1:46" ht="156">
-      <c r="A101" s="32">
-        <v>42809</v>
-      </c>
-      <c r="B101" s="32">
-        <v>42781</v>
-      </c>
-      <c r="C101" s="28">
-        <v>1632875</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G101" s="44">
-        <v>38183</v>
-      </c>
-      <c r="H101" s="36">
-        <v>29301</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="J101" s="23" t="s">
-        <v>713</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="N101" s="68">
-        <v>42782</v>
-      </c>
-    </row>
-    <row r="102" spans="1:46" ht="132">
-      <c r="A102" s="32">
-        <v>42810</v>
-      </c>
-      <c r="B102" s="32">
-        <v>42780</v>
-      </c>
-      <c r="C102" s="28">
-        <v>129570</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G102" s="36">
-        <v>31076</v>
-      </c>
-      <c r="H102" s="60">
-        <v>31076</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J102" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="N102" s="68">
-        <v>42781</v>
-      </c>
-    </row>
-    <row r="103" spans="1:46" ht="144">
-      <c r="A103" s="32">
-        <v>42811</v>
-      </c>
-      <c r="B103" s="32">
-        <v>42781</v>
-      </c>
-      <c r="C103" s="28">
-        <v>1630008</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="G103" s="44">
-        <v>41163</v>
-      </c>
-      <c r="H103" s="36">
-        <v>34056</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J103" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="N103" s="68">
-        <v>42782</v>
-      </c>
-    </row>
-    <row r="104" spans="1:46" ht="132">
-      <c r="A104" s="32">
-        <v>42811</v>
-      </c>
-      <c r="B104" s="32">
-        <v>42781</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>699</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="G104" s="44">
-        <v>38183</v>
-      </c>
-      <c r="H104" s="36">
-        <v>32004</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="J104" s="23" t="s">
-        <v>703</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="N104" s="68">
-        <v>42782</v>
-      </c>
-    </row>
-    <row r="105" spans="1:46" ht="120">
-      <c r="A105" s="32">
-        <v>42811</v>
-      </c>
-      <c r="B105" s="32">
-        <v>42781</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>716</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G105" s="44">
-        <v>38183</v>
-      </c>
-      <c r="H105" s="36">
-        <v>32004</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="J105" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="N105" s="68">
-        <v>42782</v>
-      </c>
-    </row>
-    <row r="106" spans="1:46" ht="156">
-      <c r="A106" s="32">
-        <v>42820</v>
-      </c>
-      <c r="B106" s="32">
-        <v>42776</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G106" s="60">
-        <v>43350</v>
-      </c>
-      <c r="H106" s="60">
-        <v>36070</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="J106" s="23" t="s">
-        <v>661</v>
-      </c>
-      <c r="K106" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="N106" s="68">
-        <v>42777</v>
-      </c>
-    </row>
-    <row r="107" spans="1:46">
-      <c r="A107" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G107" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H107" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="I107" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="J107" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K107" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="L107" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="M107" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="N107" s="55" t="s">
-        <v>652</v>
-      </c>
-      <c r="O107" s="55"/>
-      <c r="P107" s="55"/>
-      <c r="Q107" s="55"/>
-      <c r="R107" s="55"/>
-      <c r="S107" s="55"/>
-      <c r="T107" s="55"/>
-      <c r="U107" s="55"/>
-      <c r="V107" s="55"/>
-      <c r="W107" s="55"/>
-      <c r="X107" s="55"/>
-      <c r="Y107" s="55"/>
-      <c r="Z107" s="55"/>
-      <c r="AA107" s="55"/>
-      <c r="AB107" s="55"/>
-      <c r="AC107" s="55"/>
-      <c r="AD107" s="55"/>
-      <c r="AE107" s="55"/>
-      <c r="AF107" s="55"/>
-      <c r="AG107" s="55"/>
-      <c r="AH107" s="55"/>
-      <c r="AI107" s="55"/>
-      <c r="AJ107" s="55"/>
-      <c r="AK107" s="55"/>
-      <c r="AL107" s="55"/>
-      <c r="AM107" s="55"/>
-      <c r="AN107" s="55"/>
-      <c r="AO107" s="55"/>
-      <c r="AP107" s="55"/>
-      <c r="AQ107" s="55"/>
-      <c r="AR107" s="55"/>
-      <c r="AS107" s="55"/>
-      <c r="AT107" s="55"/>
-    </row>
-    <row r="108" spans="1:46">
-      <c r="C108" s="28"/>
-      <c r="D108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="72"/>
-      <c r="N108" s="68"/>
-    </row>
-    <row r="109" spans="1:46">
-      <c r="C109" s="28"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="1"/>
-      <c r="J109" s="4"/>
-      <c r="N109" s="68"/>
-    </row>
-    <row r="110" spans="1:46">
-      <c r="E110" s="5"/>
-      <c r="K110"/>
-    </row>
-    <row r="111" spans="1:46">
-      <c r="K111" s="73"/>
+      <c r="O116" s="52"/>
+      <c r="P116" s="52"/>
+      <c r="Q116" s="52"/>
+      <c r="R116" s="52"/>
+      <c r="S116" s="52"/>
+      <c r="T116" s="52"/>
+      <c r="U116" s="52"/>
+      <c r="V116" s="52"/>
+      <c r="W116" s="52"/>
+      <c r="X116" s="52"/>
+      <c r="Y116" s="52"/>
+      <c r="Z116" s="52"/>
+      <c r="AA116" s="52"/>
+      <c r="AB116" s="52"/>
+      <c r="AC116" s="52"/>
+      <c r="AD116" s="52"/>
+      <c r="AE116" s="52"/>
+      <c r="AF116" s="52"/>
+      <c r="AG116" s="52"/>
+      <c r="AH116" s="52"/>
+      <c r="AI116" s="52"/>
+      <c r="AJ116" s="52"/>
+      <c r="AK116" s="52"/>
+      <c r="AL116" s="52"/>
+      <c r="AM116" s="52"/>
+      <c r="AN116" s="52"/>
+      <c r="AO116" s="52"/>
+      <c r="AP116" s="52"/>
+      <c r="AQ116" s="52"/>
+      <c r="AR116" s="52"/>
+      <c r="AS116" s="52"/>
+      <c r="AT116" s="52"/>
     </row>
   </sheetData>
-  <sortState ref="A1:AT111">
-    <sortCondition ref="A1:A111"/>
+  <autoFilter ref="A1:N109"/>
+  <sortState ref="A1:AT116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1"/>
@@ -7974,7 +8414,7 @@
     <hyperlink ref="K69" r:id="rId46" display="http://www.depaolalab.com/"/>
     <hyperlink ref="K55" r:id="rId47" display="http://www.battagliaresearchgroup.org/"/>
     <hyperlink ref="K71" r:id="rId48" display="mailto:d.farina@imperial.ac.uk"/>
-    <hyperlink ref="K99" r:id="rId49"/>
+    <hyperlink ref="K100" r:id="rId49"/>
     <hyperlink ref="E76" r:id="rId50"/>
     <hyperlink ref="E78" r:id="rId51"/>
     <hyperlink ref="E57" display="https://atsv7.wcn.co.uk/search_engine/jobs.cgi?amNvZGU9MTYyMjIwNyZ2dF90ZW1wbGF0ZT05NjUmb3duZXI9NTA0MTE3OCZvd25lcnR5cGU9ZmFpciZicmFuZF9pZD0wJnBvc3RpbmdfY29kZT0yMjQmcmVxc2lnPTE0ODQxNTUzMzUtNWQwZjk5YzY4OTAwMTdiOTljYTkyOTU0MTM5NWNlNDE2MGY4YjBkYw%3D%3D&amp;jcode=1"/>
@@ -7989,27 +8429,35 @@
     <hyperlink ref="E65" r:id="rId59"/>
     <hyperlink ref="K81" r:id="rId60" display="mailto:lmc79@medschl.cam.ac.uk"/>
     <hyperlink ref="E82" r:id="rId61"/>
-    <hyperlink ref="K88" r:id="rId62" display="mailto:Achillefs.Kapanidis@physics.ox.ac.uk"/>
-    <hyperlink ref="E99" r:id="rId63"/>
-    <hyperlink ref="E91" r:id="rId64"/>
-    <hyperlink ref="E93" r:id="rId65"/>
-    <hyperlink ref="E92" r:id="rId66"/>
-    <hyperlink ref="K92" r:id="rId67"/>
-    <hyperlink ref="E94" r:id="rId68"/>
+    <hyperlink ref="K89" r:id="rId62" display="mailto:Achillefs.Kapanidis@physics.ox.ac.uk"/>
+    <hyperlink ref="E100" r:id="rId63"/>
+    <hyperlink ref="E92" r:id="rId64"/>
+    <hyperlink ref="E94" r:id="rId65"/>
+    <hyperlink ref="E93" r:id="rId66"/>
+    <hyperlink ref="K93" r:id="rId67"/>
+    <hyperlink ref="E95" r:id="rId68"/>
     <hyperlink ref="E83" r:id="rId69"/>
-    <hyperlink ref="E96" display="https://atsv7.wcn.co.uk/search_engine/jobs.cgi?amNvZGU9MTYyNTMxNSZ2dF90ZW1wbGF0ZT03Njcmb3duZXI9NTAzMjUyMSZvd25lcnR5cGU9ZmFpciZicmFuZF9pZD0wJnZhY2Zpcm0udmFjdGl0bGU9NTY1MjMmcG9zdGluZ19jb2RlPTExNyZyZXFzaWc9MTQ4NjQ1OTAyMi1lYjkwMjczZjVmN2UwYjRhODlmZDYxNDg0NmYy"/>
-    <hyperlink ref="K106" r:id="rId70" display="mailto:joshua.edel@imperial.ac.uk"/>
-    <hyperlink ref="E106" r:id="rId71"/>
-    <hyperlink ref="K98" r:id="rId72" display="mailto:m.gold@ucl.ac.uk"/>
-    <hyperlink ref="E100" r:id="rId73"/>
-    <hyperlink ref="E97" r:id="rId74"/>
-    <hyperlink ref="K105" r:id="rId75" display="https://engineering.leeds.ac.uk/staff/640/Professor_Andrew_Bayly"/>
-    <hyperlink ref="E103" r:id="rId76"/>
-    <hyperlink ref="E101" r:id="rId77"/>
+    <hyperlink ref="E97" display="https://atsv7.wcn.co.uk/search_engine/jobs.cgi?amNvZGU9MTYyNTMxNSZ2dF90ZW1wbGF0ZT03Njcmb3duZXI9NTAzMjUyMSZvd25lcnR5cGU9ZmFpciZicmFuZF9pZD0wJnZhY2Zpcm0udmFjdGl0bGU9NTY1MjMmcG9zdGluZ19jb2RlPTExNyZyZXFzaWc9MTQ4NjQ1OTAyMi1lYjkwMjczZjVmN2UwYjRhODlmZDYxNDg0NmYy"/>
+    <hyperlink ref="K115" r:id="rId70" display="mailto:joshua.edel@imperial.ac.uk"/>
+    <hyperlink ref="E115" r:id="rId71"/>
+    <hyperlink ref="K99" r:id="rId72" display="mailto:m.gold@ucl.ac.uk"/>
+    <hyperlink ref="E101" r:id="rId73"/>
+    <hyperlink ref="E98" r:id="rId74"/>
+    <hyperlink ref="K109" r:id="rId75" display="https://engineering.leeds.ac.uk/staff/640/Professor_Andrew_Bayly"/>
+    <hyperlink ref="E107" r:id="rId76"/>
+    <hyperlink ref="E104" r:id="rId77"/>
+    <hyperlink ref="E105" display="https://atsv7.wcn.co.uk/search_engine/jobs.cgi?amNvZGU9MTYyODA0MyZ2dF90ZW1wbGF0ZT05NjUmb3duZXI9NTA0MTE3OCZvd25lcnR5cGU9ZmFpciZicmFuZF9pZD0wJmpvYl9yZWZfY29kZT0xNjI4MDQzJnBvc3RpbmdfY29kZT0yMjQmcmVxc2lnPTE0ODc2OTIzMjYtOTQyOWJkZjNhMGYxMmFmNjBmZWMxMWU2MDJmOGE2"/>
+    <hyperlink ref="E102" r:id="rId78"/>
+    <hyperlink ref="E112" r:id="rId79"/>
+    <hyperlink ref="E113" r:id="rId80"/>
+    <hyperlink ref="E103" r:id="rId81"/>
+    <hyperlink ref="E86" r:id="rId82"/>
+    <hyperlink ref="E114" r:id="rId83"/>
+    <hyperlink ref="E111" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId78"/>
-  <drawing r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId85"/>
+  <drawing r:id="rId86"/>
 </worksheet>
 </file>
 
